--- a/experiments/evaluation/llm-seed/roberta-base_15/original_remove/rem1/123/word_level_predictions_123.xlsx
+++ b/experiments/evaluation/llm-seed/roberta-base_15/original_remove/rem1/123/word_level_predictions_123.xlsx
@@ -1178,156 +1178,156 @@
       </c>
     </row>
     <row r="15">
-      <c r="A15" t="n">
-        <v>0</v>
-      </c>
-      <c r="B15" t="inlineStr">
+      <c r="A15" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B15" s="2" t="inlineStr">
         <is>
           <t>Aircraft approaching obstacle sensing blind spot and may be unable to detect obstacles Fly with caution .</t>
         </is>
       </c>
-      <c r="C15" t="inlineStr">
+      <c r="C15" s="2" t="inlineStr">
         <is>
           <t>Fly</t>
         </is>
       </c>
-      <c r="D15" t="n">
+      <c r="D15" s="2" t="n">
         <v>13</v>
       </c>
-      <c r="E15" t="inlineStr">
+      <c r="E15" s="2" t="inlineStr">
         <is>
           <t>B-NonEvent</t>
         </is>
       </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>B-NonEvent</t>
-        </is>
-      </c>
-      <c r="G15" t="b">
-        <v>1</v>
-      </c>
-      <c r="H15" t="inlineStr">
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
         <is>
           <t>NonEvent</t>
         </is>
       </c>
-      <c r="I15" t="b">
-        <v>1</v>
-      </c>
-      <c r="J15" t="inlineStr">
+      <c r="I15" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Tag_B_as_I</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B16" s="2" t="inlineStr">
+        <is>
+          <t>Aircraft approaching obstacle sensing blind spot and may be unable to detect obstacles Fly with caution .</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>with</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
         <is>
           <t>NonEvent</t>
         </is>
       </c>
-      <c r="K15" t="b">
-        <v>1</v>
-      </c>
-      <c r="L15" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="n">
-        <v>0</v>
-      </c>
-      <c r="B16" t="inlineStr">
+      <c r="I16" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B17" s="2" t="inlineStr">
         <is>
           <t>Aircraft approaching obstacle sensing blind spot and may be unable to detect obstacles Fly with caution .</t>
         </is>
       </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>with</t>
-        </is>
-      </c>
-      <c r="D16" t="n">
-        <v>14</v>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G16" t="b">
-        <v>1</v>
-      </c>
-      <c r="H16" t="inlineStr">
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>caution</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>E-NonEvent</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>E-NonEvent</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
         <is>
           <t>NonEvent</t>
         </is>
       </c>
-      <c r="I16" t="b">
-        <v>1</v>
-      </c>
-      <c r="J16" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K16" t="b">
-        <v>1</v>
-      </c>
-      <c r="L16" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="n">
-        <v>0</v>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>Aircraft approaching obstacle sensing blind spot and may be unable to detect obstacles Fly with caution .</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>caution</t>
-        </is>
-      </c>
-      <c r="D17" t="n">
-        <v>15</v>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>E-NonEvent</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>E-NonEvent</t>
-        </is>
-      </c>
-      <c r="G17" t="b">
-        <v>1</v>
-      </c>
-      <c r="H17" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I17" t="b">
-        <v>1</v>
-      </c>
-      <c r="J17" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K17" t="b">
-        <v>1</v>
-      </c>
-      <c r="L17" t="inlineStr">
+      <c r="I17" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
@@ -4529,7 +4529,7 @@
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>E-Event</t>
         </is>
       </c>
       <c r="G79" t="b">
@@ -4553,57 +4553,57 @@
       </c>
       <c r="L79" t="inlineStr">
         <is>
-          <t>Wrong_Tag_B_as_I</t>
+          <t>Wrong_Tag_B_as_E</t>
         </is>
       </c>
     </row>
     <row r="80">
-      <c r="A80" t="n">
+      <c r="A80" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="B80" t="inlineStr">
+      <c r="B80" s="2" t="inlineStr">
         <is>
           <t>Home Point Recorded Taking off .</t>
         </is>
       </c>
-      <c r="C80" t="inlineStr">
+      <c r="C80" s="2" t="inlineStr">
         <is>
           <t>off</t>
         </is>
       </c>
-      <c r="D80" t="n">
+      <c r="D80" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="E80" t="inlineStr">
+      <c r="E80" s="2" t="inlineStr">
         <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="F80" t="inlineStr">
+      <c r="F80" s="2" t="inlineStr">
         <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="G80" t="b">
-        <v>1</v>
-      </c>
-      <c r="H80" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I80" t="b">
-        <v>1</v>
-      </c>
-      <c r="J80" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K80" t="b">
-        <v>1</v>
-      </c>
-      <c r="L80" t="inlineStr">
+      <c r="G80" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H80" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I80" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J80" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K80" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L80" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
@@ -6713,7 +6713,7 @@
       </c>
       <c r="F121" s="2" t="inlineStr">
         <is>
-          <t>B-Event</t>
+          <t>B-NonEvent</t>
         </is>
       </c>
       <c r="G121" s="2" t="b">
@@ -6725,11 +6725,11 @@
         </is>
       </c>
       <c r="I121" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J121" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="K121" s="2" t="b">
@@ -6737,7 +6737,7 @@
       </c>
       <c r="L121" s="2" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Entity_Event_as_NonEvent</t>
         </is>
       </c>
     </row>
@@ -6777,11 +6777,11 @@
         </is>
       </c>
       <c r="I122" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J122" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="K122" s="2" t="b">
@@ -6829,11 +6829,11 @@
         </is>
       </c>
       <c r="I123" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J123" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="K123" s="2" t="b">
@@ -6881,11 +6881,11 @@
         </is>
       </c>
       <c r="I124" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J124" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="K124" s="2" t="b">
@@ -6933,11 +6933,11 @@
         </is>
       </c>
       <c r="I125" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J125" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="K125" s="2" t="b">
@@ -6973,7 +6973,7 @@
       </c>
       <c r="F126" s="2" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>I-NonEvent</t>
         </is>
       </c>
       <c r="G126" s="2" t="b">
@@ -6985,11 +6985,11 @@
         </is>
       </c>
       <c r="I126" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J126" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="K126" s="2" t="b">
@@ -6997,7 +6997,7 @@
       </c>
       <c r="L126" s="2" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Entity_Event_as_NonEvent</t>
         </is>
       </c>
     </row>
@@ -7025,7 +7025,7 @@
       </c>
       <c r="F127" s="2" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>I-NonEvent</t>
         </is>
       </c>
       <c r="G127" s="2" t="b">
@@ -7037,11 +7037,11 @@
         </is>
       </c>
       <c r="I127" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J127" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="K127" s="2" t="b">
@@ -7049,7 +7049,7 @@
       </c>
       <c r="L127" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Tag_E_as_I</t>
+          <t>Wrong_Entity_Event_as_NonEvent</t>
         </is>
       </c>
     </row>
@@ -7077,7 +7077,7 @@
       </c>
       <c r="F128" s="2" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>I-NonEvent</t>
         </is>
       </c>
       <c r="G128" s="2" t="b">
@@ -7089,11 +7089,11 @@
         </is>
       </c>
       <c r="I128" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J128" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="K128" s="2" t="b">
@@ -7101,7 +7101,7 @@
       </c>
       <c r="L128" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Tag_B_as_I</t>
+          <t>Wrong_Entity_Event_as_NonEvent</t>
         </is>
       </c>
     </row>
@@ -7129,7 +7129,7 @@
       </c>
       <c r="F129" s="2" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>I-NonEvent</t>
         </is>
       </c>
       <c r="G129" s="2" t="b">
@@ -7141,11 +7141,11 @@
         </is>
       </c>
       <c r="I129" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J129" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="K129" s="2" t="b">
@@ -7153,7 +7153,7 @@
       </c>
       <c r="L129" s="2" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Entity_Event_as_NonEvent</t>
         </is>
       </c>
     </row>
@@ -7181,7 +7181,7 @@
       </c>
       <c r="F130" s="2" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>I-NonEvent</t>
         </is>
       </c>
       <c r="G130" s="2" t="b">
@@ -7193,11 +7193,11 @@
         </is>
       </c>
       <c r="I130" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J130" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="K130" s="2" t="b">
@@ -7205,7 +7205,7 @@
       </c>
       <c r="L130" s="2" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Entity_Event_as_NonEvent</t>
         </is>
       </c>
     </row>
@@ -7233,7 +7233,7 @@
       </c>
       <c r="F131" s="2" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>I-NonEvent</t>
         </is>
       </c>
       <c r="G131" s="2" t="b">
@@ -7245,11 +7245,11 @@
         </is>
       </c>
       <c r="I131" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J131" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="K131" s="2" t="b">
@@ -7257,7 +7257,7 @@
       </c>
       <c r="L131" s="2" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Entity_Event_as_NonEvent</t>
         </is>
       </c>
     </row>
@@ -7285,7 +7285,7 @@
       </c>
       <c r="F132" s="2" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>I-NonEvent</t>
         </is>
       </c>
       <c r="G132" s="2" t="b">
@@ -7297,11 +7297,11 @@
         </is>
       </c>
       <c r="I132" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J132" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="K132" s="2" t="b">
@@ -7309,7 +7309,7 @@
       </c>
       <c r="L132" s="2" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Entity_Event_as_NonEvent</t>
         </is>
       </c>
     </row>
@@ -7337,7 +7337,7 @@
       </c>
       <c r="F133" s="2" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>I-NonEvent</t>
         </is>
       </c>
       <c r="G133" s="2" t="b">
@@ -7349,11 +7349,11 @@
         </is>
       </c>
       <c r="I133" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J133" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="K133" s="2" t="b">
@@ -7361,7 +7361,7 @@
       </c>
       <c r="L133" s="2" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Entity_Event_as_NonEvent</t>
         </is>
       </c>
     </row>
@@ -7389,7 +7389,7 @@
       </c>
       <c r="F134" s="2" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>I-NonEvent</t>
         </is>
       </c>
       <c r="G134" s="2" t="b">
@@ -7401,11 +7401,11 @@
         </is>
       </c>
       <c r="I134" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J134" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="K134" s="2" t="b">
@@ -7413,7 +7413,7 @@
       </c>
       <c r="L134" s="2" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Entity_Event_as_NonEvent</t>
         </is>
       </c>
     </row>
@@ -7441,7 +7441,7 @@
       </c>
       <c r="F135" s="2" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>I-NonEvent</t>
         </is>
       </c>
       <c r="G135" s="2" t="b">
@@ -7453,11 +7453,11 @@
         </is>
       </c>
       <c r="I135" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J135" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="K135" s="2" t="b">
@@ -7465,7 +7465,7 @@
       </c>
       <c r="L135" s="2" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Entity_Event_as_NonEvent</t>
         </is>
       </c>
     </row>
@@ -7493,7 +7493,7 @@
       </c>
       <c r="F136" s="2" t="inlineStr">
         <is>
-          <t>E-Event</t>
+          <t>E-NonEvent</t>
         </is>
       </c>
       <c r="G136" s="2" t="b">
@@ -7505,11 +7505,11 @@
         </is>
       </c>
       <c r="I136" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J136" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="K136" s="2" t="b">
@@ -7517,7 +7517,7 @@
       </c>
       <c r="L136" s="2" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Entity_Event_as_NonEvent</t>
         </is>
       </c>
     </row>
@@ -9446,676 +9446,676 @@
       </c>
     </row>
     <row r="174">
-      <c r="A174" t="n">
+      <c r="A174" s="2" t="n">
         <v>16</v>
       </c>
-      <c r="B174" t="inlineStr">
+      <c r="B174" s="2" t="inlineStr">
         <is>
           <t>Motor Obstructed Propulsion output is limited to ensure the health of the battery .</t>
         </is>
       </c>
-      <c r="C174" t="inlineStr">
+      <c r="C174" s="2" t="inlineStr">
         <is>
           <t>Motor</t>
         </is>
       </c>
-      <c r="D174" t="n">
-        <v>0</v>
-      </c>
-      <c r="E174" t="inlineStr">
+      <c r="D174" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E174" s="2" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="F174" t="inlineStr">
+      <c r="F174" s="2" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="G174" t="b">
-        <v>1</v>
-      </c>
-      <c r="H174" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I174" t="b">
-        <v>1</v>
-      </c>
-      <c r="J174" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K174" t="b">
-        <v>1</v>
-      </c>
-      <c r="L174" t="inlineStr">
+      <c r="G174" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H174" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I174" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J174" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K174" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L174" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="175">
-      <c r="A175" t="n">
+      <c r="A175" s="2" t="n">
         <v>16</v>
       </c>
-      <c r="B175" t="inlineStr">
+      <c r="B175" s="2" t="inlineStr">
         <is>
           <t>Motor Obstructed Propulsion output is limited to ensure the health of the battery .</t>
         </is>
       </c>
-      <c r="C175" t="inlineStr">
+      <c r="C175" s="2" t="inlineStr">
         <is>
           <t>Obstructed</t>
         </is>
       </c>
-      <c r="D175" t="n">
-        <v>1</v>
-      </c>
-      <c r="E175" t="inlineStr">
+      <c r="D175" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E175" s="2" t="inlineStr">
         <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="F175" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G175" t="b">
-        <v>1</v>
-      </c>
-      <c r="H175" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I175" t="b">
-        <v>1</v>
-      </c>
-      <c r="J175" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K175" t="b">
-        <v>1</v>
-      </c>
-      <c r="L175" t="inlineStr">
+      <c r="F175" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G175" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H175" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I175" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J175" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K175" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L175" s="2" t="inlineStr">
         <is>
           <t>Wrong_Tag_E_as_I</t>
         </is>
       </c>
     </row>
     <row r="176">
-      <c r="A176" t="n">
+      <c r="A176" s="2" t="n">
         <v>16</v>
       </c>
-      <c r="B176" t="inlineStr">
+      <c r="B176" s="2" t="inlineStr">
         <is>
           <t>Motor Obstructed Propulsion output is limited to ensure the health of the battery .</t>
         </is>
       </c>
-      <c r="C176" t="inlineStr">
+      <c r="C176" s="2" t="inlineStr">
         <is>
           <t>Propulsion</t>
         </is>
       </c>
-      <c r="D176" t="n">
+      <c r="D176" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="E176" t="inlineStr">
+      <c r="E176" s="2" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="F176" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G176" t="b">
-        <v>1</v>
-      </c>
-      <c r="H176" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I176" t="b">
-        <v>1</v>
-      </c>
-      <c r="J176" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K176" t="b">
-        <v>1</v>
-      </c>
-      <c r="L176" t="inlineStr">
+      <c r="F176" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G176" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H176" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I176" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J176" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K176" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L176" s="2" t="inlineStr">
         <is>
           <t>Wrong_Tag_B_as_I</t>
         </is>
       </c>
     </row>
     <row r="177">
-      <c r="A177" t="n">
+      <c r="A177" s="2" t="n">
         <v>16</v>
       </c>
-      <c r="B177" t="inlineStr">
+      <c r="B177" s="2" t="inlineStr">
         <is>
           <t>Motor Obstructed Propulsion output is limited to ensure the health of the battery .</t>
         </is>
       </c>
-      <c r="C177" t="inlineStr">
+      <c r="C177" s="2" t="inlineStr">
         <is>
           <t>output</t>
         </is>
       </c>
-      <c r="D177" t="n">
+      <c r="D177" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="E177" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F177" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G177" t="b">
-        <v>1</v>
-      </c>
-      <c r="H177" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I177" t="b">
-        <v>1</v>
-      </c>
-      <c r="J177" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K177" t="b">
-        <v>1</v>
-      </c>
-      <c r="L177" t="inlineStr">
+      <c r="E177" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F177" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G177" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H177" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I177" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J177" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K177" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L177" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="178">
-      <c r="A178" t="n">
+      <c r="A178" s="2" t="n">
         <v>16</v>
       </c>
-      <c r="B178" t="inlineStr">
+      <c r="B178" s="2" t="inlineStr">
         <is>
           <t>Motor Obstructed Propulsion output is limited to ensure the health of the battery .</t>
         </is>
       </c>
-      <c r="C178" t="inlineStr">
+      <c r="C178" s="2" t="inlineStr">
         <is>
           <t>is</t>
         </is>
       </c>
-      <c r="D178" t="n">
+      <c r="D178" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="E178" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F178" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G178" t="b">
-        <v>1</v>
-      </c>
-      <c r="H178" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I178" t="b">
-        <v>1</v>
-      </c>
-      <c r="J178" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K178" t="b">
-        <v>1</v>
-      </c>
-      <c r="L178" t="inlineStr">
+      <c r="E178" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F178" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G178" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H178" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I178" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J178" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K178" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L178" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="179">
-      <c r="A179" t="n">
+      <c r="A179" s="2" t="n">
         <v>16</v>
       </c>
-      <c r="B179" t="inlineStr">
+      <c r="B179" s="2" t="inlineStr">
         <is>
           <t>Motor Obstructed Propulsion output is limited to ensure the health of the battery .</t>
         </is>
       </c>
-      <c r="C179" t="inlineStr">
+      <c r="C179" s="2" t="inlineStr">
         <is>
           <t>limited</t>
         </is>
       </c>
-      <c r="D179" t="n">
+      <c r="D179" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="E179" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F179" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G179" t="b">
-        <v>1</v>
-      </c>
-      <c r="H179" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I179" t="b">
-        <v>1</v>
-      </c>
-      <c r="J179" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K179" t="b">
-        <v>1</v>
-      </c>
-      <c r="L179" t="inlineStr">
+      <c r="E179" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F179" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G179" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H179" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I179" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J179" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K179" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L179" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="180">
-      <c r="A180" t="n">
+      <c r="A180" s="2" t="n">
         <v>16</v>
       </c>
-      <c r="B180" t="inlineStr">
+      <c r="B180" s="2" t="inlineStr">
         <is>
           <t>Motor Obstructed Propulsion output is limited to ensure the health of the battery .</t>
         </is>
       </c>
-      <c r="C180" t="inlineStr">
+      <c r="C180" s="2" t="inlineStr">
         <is>
           <t>to</t>
         </is>
       </c>
-      <c r="D180" t="n">
+      <c r="D180" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="E180" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F180" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G180" t="b">
-        <v>1</v>
-      </c>
-      <c r="H180" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I180" t="b">
-        <v>1</v>
-      </c>
-      <c r="J180" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K180" t="b">
-        <v>1</v>
-      </c>
-      <c r="L180" t="inlineStr">
+      <c r="E180" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F180" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G180" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H180" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I180" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J180" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K180" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L180" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="181">
-      <c r="A181" t="n">
+      <c r="A181" s="2" t="n">
         <v>16</v>
       </c>
-      <c r="B181" t="inlineStr">
+      <c r="B181" s="2" t="inlineStr">
         <is>
           <t>Motor Obstructed Propulsion output is limited to ensure the health of the battery .</t>
         </is>
       </c>
-      <c r="C181" t="inlineStr">
+      <c r="C181" s="2" t="inlineStr">
         <is>
           <t>ensure</t>
         </is>
       </c>
-      <c r="D181" t="n">
+      <c r="D181" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="E181" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F181" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G181" t="b">
-        <v>1</v>
-      </c>
-      <c r="H181" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I181" t="b">
-        <v>1</v>
-      </c>
-      <c r="J181" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K181" t="b">
-        <v>1</v>
-      </c>
-      <c r="L181" t="inlineStr">
+      <c r="E181" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F181" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G181" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H181" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I181" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J181" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K181" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L181" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="182">
-      <c r="A182" t="n">
+      <c r="A182" s="2" t="n">
         <v>16</v>
       </c>
-      <c r="B182" t="inlineStr">
+      <c r="B182" s="2" t="inlineStr">
         <is>
           <t>Motor Obstructed Propulsion output is limited to ensure the health of the battery .</t>
         </is>
       </c>
-      <c r="C182" t="inlineStr">
+      <c r="C182" s="2" t="inlineStr">
         <is>
           <t>the</t>
         </is>
       </c>
-      <c r="D182" t="n">
+      <c r="D182" s="2" t="n">
         <v>8</v>
       </c>
-      <c r="E182" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F182" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G182" t="b">
-        <v>1</v>
-      </c>
-      <c r="H182" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I182" t="b">
-        <v>1</v>
-      </c>
-      <c r="J182" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K182" t="b">
-        <v>1</v>
-      </c>
-      <c r="L182" t="inlineStr">
+      <c r="E182" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F182" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G182" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H182" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I182" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J182" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K182" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L182" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="183">
-      <c r="A183" t="n">
+      <c r="A183" s="2" t="n">
         <v>16</v>
       </c>
-      <c r="B183" t="inlineStr">
+      <c r="B183" s="2" t="inlineStr">
         <is>
           <t>Motor Obstructed Propulsion output is limited to ensure the health of the battery .</t>
         </is>
       </c>
-      <c r="C183" t="inlineStr">
+      <c r="C183" s="2" t="inlineStr">
         <is>
           <t>health</t>
         </is>
       </c>
-      <c r="D183" t="n">
+      <c r="D183" s="2" t="n">
         <v>9</v>
       </c>
-      <c r="E183" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F183" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G183" t="b">
-        <v>1</v>
-      </c>
-      <c r="H183" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I183" t="b">
-        <v>1</v>
-      </c>
-      <c r="J183" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K183" t="b">
-        <v>1</v>
-      </c>
-      <c r="L183" t="inlineStr">
+      <c r="E183" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F183" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G183" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H183" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I183" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J183" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K183" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L183" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="184">
-      <c r="A184" t="n">
+      <c r="A184" s="2" t="n">
         <v>16</v>
       </c>
-      <c r="B184" t="inlineStr">
+      <c r="B184" s="2" t="inlineStr">
         <is>
           <t>Motor Obstructed Propulsion output is limited to ensure the health of the battery .</t>
         </is>
       </c>
-      <c r="C184" t="inlineStr">
+      <c r="C184" s="2" t="inlineStr">
         <is>
           <t>of</t>
         </is>
       </c>
-      <c r="D184" t="n">
+      <c r="D184" s="2" t="n">
         <v>10</v>
       </c>
-      <c r="E184" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F184" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G184" t="b">
-        <v>1</v>
-      </c>
-      <c r="H184" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I184" t="b">
-        <v>1</v>
-      </c>
-      <c r="J184" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K184" t="b">
-        <v>1</v>
-      </c>
-      <c r="L184" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="E184" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F184" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G184" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H184" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I184" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J184" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K184" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L184" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_Event_as_NonEvent</t>
         </is>
       </c>
     </row>
     <row r="185">
-      <c r="A185" t="n">
+      <c r="A185" s="2" t="n">
         <v>16</v>
       </c>
-      <c r="B185" t="inlineStr">
+      <c r="B185" s="2" t="inlineStr">
         <is>
           <t>Motor Obstructed Propulsion output is limited to ensure the health of the battery .</t>
         </is>
       </c>
-      <c r="C185" t="inlineStr">
+      <c r="C185" s="2" t="inlineStr">
         <is>
           <t>the</t>
         </is>
       </c>
-      <c r="D185" t="n">
+      <c r="D185" s="2" t="n">
         <v>11</v>
       </c>
-      <c r="E185" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F185" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G185" t="b">
-        <v>1</v>
-      </c>
-      <c r="H185" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I185" t="b">
-        <v>1</v>
-      </c>
-      <c r="J185" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K185" t="b">
-        <v>1</v>
-      </c>
-      <c r="L185" t="inlineStr">
+      <c r="E185" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F185" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G185" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H185" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I185" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J185" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K185" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L185" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="186">
-      <c r="A186" t="n">
+      <c r="A186" s="2" t="n">
         <v>16</v>
       </c>
-      <c r="B186" t="inlineStr">
+      <c r="B186" s="2" t="inlineStr">
         <is>
           <t>Motor Obstructed Propulsion output is limited to ensure the health of the battery .</t>
         </is>
       </c>
-      <c r="C186" t="inlineStr">
+      <c r="C186" s="2" t="inlineStr">
         <is>
           <t>battery</t>
         </is>
       </c>
-      <c r="D186" t="n">
+      <c r="D186" s="2" t="n">
         <v>12</v>
       </c>
-      <c r="E186" t="inlineStr">
+      <c r="E186" s="2" t="inlineStr">
         <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="F186" t="inlineStr">
+      <c r="F186" s="2" t="inlineStr">
         <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="G186" t="b">
-        <v>1</v>
-      </c>
-      <c r="H186" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I186" t="b">
-        <v>1</v>
-      </c>
-      <c r="J186" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K186" t="b">
-        <v>1</v>
-      </c>
-      <c r="L186" t="inlineStr">
+      <c r="G186" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H186" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I186" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J186" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K186" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L186" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
@@ -11318,158 +11318,158 @@
       </c>
     </row>
     <row r="210">
-      <c r="A210" t="n">
+      <c r="A210" s="2" t="n">
         <v>19</v>
       </c>
-      <c r="B210" t="inlineStr">
+      <c r="B210" s="2" t="inlineStr">
         <is>
           <t>GEO Zone Info: The target area is in an Altitude Zone Flight altitude restricted to nnn .</t>
         </is>
       </c>
-      <c r="C210" t="inlineStr">
+      <c r="C210" s="2" t="inlineStr">
         <is>
           <t>GEO</t>
         </is>
       </c>
-      <c r="D210" t="n">
-        <v>0</v>
-      </c>
-      <c r="E210" t="inlineStr">
+      <c r="D210" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E210" s="2" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="F210" t="inlineStr">
+      <c r="F210" s="2" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="G210" t="b">
-        <v>1</v>
-      </c>
-      <c r="H210" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I210" t="b">
-        <v>1</v>
-      </c>
-      <c r="J210" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K210" t="b">
-        <v>1</v>
-      </c>
-      <c r="L210" t="inlineStr">
+      <c r="G210" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H210" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I210" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J210" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K210" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L210" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="211">
-      <c r="A211" t="n">
+      <c r="A211" s="2" t="n">
         <v>19</v>
       </c>
-      <c r="B211" t="inlineStr">
+      <c r="B211" s="2" t="inlineStr">
         <is>
           <t>GEO Zone Info: The target area is in an Altitude Zone Flight altitude restricted to nnn .</t>
         </is>
       </c>
-      <c r="C211" t="inlineStr">
+      <c r="C211" s="2" t="inlineStr">
         <is>
           <t>Zone</t>
         </is>
       </c>
-      <c r="D211" t="n">
-        <v>1</v>
-      </c>
-      <c r="E211" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F211" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G211" t="b">
-        <v>1</v>
-      </c>
-      <c r="H211" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I211" t="b">
-        <v>1</v>
-      </c>
-      <c r="J211" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K211" t="b">
-        <v>1</v>
-      </c>
-      <c r="L211" t="inlineStr">
+      <c r="D211" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E211" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F211" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G211" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H211" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I211" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J211" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K211" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L211" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="212">
-      <c r="A212" t="n">
+      <c r="A212" s="2" t="n">
         <v>19</v>
       </c>
-      <c r="B212" t="inlineStr">
+      <c r="B212" s="2" t="inlineStr">
         <is>
           <t>GEO Zone Info: The target area is in an Altitude Zone Flight altitude restricted to nnn .</t>
         </is>
       </c>
-      <c r="C212" t="inlineStr">
+      <c r="C212" s="2" t="inlineStr">
         <is>
           <t>Info:</t>
         </is>
       </c>
-      <c r="D212" t="n">
+      <c r="D212" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="E212" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F212" t="inlineStr">
-        <is>
-          <t>E-Event</t>
-        </is>
-      </c>
-      <c r="G212" t="b">
-        <v>1</v>
-      </c>
-      <c r="H212" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I212" t="b">
-        <v>1</v>
-      </c>
-      <c r="J212" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K212" t="b">
-        <v>1</v>
-      </c>
-      <c r="L212" t="inlineStr">
-        <is>
-          <t>Wrong_Tag_I_as_E</t>
+      <c r="E212" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F212" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G212" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H212" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I212" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J212" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K212" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L212" s="2" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>

--- a/experiments/evaluation/llm-seed/roberta-base_15/original_remove/rem1/123/word_level_predictions_123.xlsx
+++ b/experiments/evaluation/llm-seed/roberta-base_15/original_remove/rem1/123/word_level_predictions_123.xlsx
@@ -1178,156 +1178,156 @@
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="B15" s="2" t="inlineStr">
+      <c r="A15" t="n">
+        <v>0</v>
+      </c>
+      <c r="B15" t="inlineStr">
         <is>
           <t>Aircraft approaching obstacle sensing blind spot and may be unable to detect obstacles Fly with caution .</t>
         </is>
       </c>
-      <c r="C15" s="2" t="inlineStr">
+      <c r="C15" t="inlineStr">
         <is>
           <t>Fly</t>
         </is>
       </c>
-      <c r="D15" s="2" t="n">
+      <c r="D15" t="n">
         <v>13</v>
       </c>
-      <c r="E15" s="2" t="inlineStr">
+      <c r="E15" t="inlineStr">
         <is>
           <t>B-NonEvent</t>
         </is>
       </c>
-      <c r="F15" s="2" t="inlineStr">
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>B-NonEvent</t>
+        </is>
+      </c>
+      <c r="G15" t="b">
+        <v>1</v>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I15" t="b">
+        <v>1</v>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K15" t="b">
+        <v>1</v>
+      </c>
+      <c r="L15" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>0</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Aircraft approaching obstacle sensing blind spot and may be unable to detect obstacles Fly with caution .</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>with</t>
+        </is>
+      </c>
+      <c r="D16" t="n">
+        <v>14</v>
+      </c>
+      <c r="E16" t="inlineStr">
         <is>
           <t>I-NonEvent</t>
         </is>
       </c>
-      <c r="G15" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H15" s="2" t="inlineStr">
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G16" t="b">
+        <v>1</v>
+      </c>
+      <c r="H16" t="inlineStr">
         <is>
           <t>NonEvent</t>
         </is>
       </c>
-      <c r="I15" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J15" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K15" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L15" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Tag_B_as_I</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="B16" s="2" t="inlineStr">
+      <c r="I16" t="b">
+        <v>1</v>
+      </c>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K16" t="b">
+        <v>1</v>
+      </c>
+      <c r="L16" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>0</v>
+      </c>
+      <c r="B17" t="inlineStr">
         <is>
           <t>Aircraft approaching obstacle sensing blind spot and may be unable to detect obstacles Fly with caution .</t>
         </is>
       </c>
-      <c r="C16" s="2" t="inlineStr">
-        <is>
-          <t>with</t>
-        </is>
-      </c>
-      <c r="D16" s="2" t="n">
-        <v>14</v>
-      </c>
-      <c r="E16" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F16" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G16" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H16" s="2" t="inlineStr">
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>caution</t>
+        </is>
+      </c>
+      <c r="D17" t="n">
+        <v>15</v>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>E-NonEvent</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>E-NonEvent</t>
+        </is>
+      </c>
+      <c r="G17" t="b">
+        <v>1</v>
+      </c>
+      <c r="H17" t="inlineStr">
         <is>
           <t>NonEvent</t>
         </is>
       </c>
-      <c r="I16" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J16" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K16" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L16" s="2" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="B17" s="2" t="inlineStr">
-        <is>
-          <t>Aircraft approaching obstacle sensing blind spot and may be unable to detect obstacles Fly with caution .</t>
-        </is>
-      </c>
-      <c r="C17" s="2" t="inlineStr">
-        <is>
-          <t>caution</t>
-        </is>
-      </c>
-      <c r="D17" s="2" t="n">
-        <v>15</v>
-      </c>
-      <c r="E17" s="2" t="inlineStr">
-        <is>
-          <t>E-NonEvent</t>
-        </is>
-      </c>
-      <c r="F17" s="2" t="inlineStr">
-        <is>
-          <t>E-NonEvent</t>
-        </is>
-      </c>
-      <c r="G17" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H17" s="2" t="inlineStr">
+      <c r="I17" t="b">
+        <v>1</v>
+      </c>
+      <c r="J17" t="inlineStr">
         <is>
           <t>NonEvent</t>
         </is>
       </c>
-      <c r="I17" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J17" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K17" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L17" s="2" t="inlineStr">
+      <c r="K17" t="b">
+        <v>1</v>
+      </c>
+      <c r="L17" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
@@ -4529,81 +4529,81 @@
       </c>
       <c r="F79" t="inlineStr">
         <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G79" t="b">
+        <v>1</v>
+      </c>
+      <c r="H79" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I79" t="b">
+        <v>1</v>
+      </c>
+      <c r="J79" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K79" t="b">
+        <v>1</v>
+      </c>
+      <c r="L79" t="inlineStr">
+        <is>
+          <t>Wrong_Tag_B_as_I</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="n">
+        <v>7</v>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>Home Point Recorded Taking off .</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>off</t>
+        </is>
+      </c>
+      <c r="D80" t="n">
+        <v>4</v>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="G79" t="b">
-        <v>1</v>
-      </c>
-      <c r="H79" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I79" t="b">
-        <v>1</v>
-      </c>
-      <c r="J79" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K79" t="b">
-        <v>1</v>
-      </c>
-      <c r="L79" t="inlineStr">
-        <is>
-          <t>Wrong_Tag_B_as_E</t>
-        </is>
-      </c>
-    </row>
-    <row r="80">
-      <c r="A80" s="2" t="n">
-        <v>7</v>
-      </c>
-      <c r="B80" s="2" t="inlineStr">
-        <is>
-          <t>Home Point Recorded Taking off .</t>
-        </is>
-      </c>
-      <c r="C80" s="2" t="inlineStr">
-        <is>
-          <t>off</t>
-        </is>
-      </c>
-      <c r="D80" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="E80" s="2" t="inlineStr">
+      <c r="F80" t="inlineStr">
         <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="F80" s="2" t="inlineStr">
-        <is>
-          <t>E-Event</t>
-        </is>
-      </c>
-      <c r="G80" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H80" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I80" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J80" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K80" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L80" s="2" t="inlineStr">
+      <c r="G80" t="b">
+        <v>1</v>
+      </c>
+      <c r="H80" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I80" t="b">
+        <v>1</v>
+      </c>
+      <c r="J80" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K80" t="b">
+        <v>1</v>
+      </c>
+      <c r="L80" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
@@ -6713,7 +6713,7 @@
       </c>
       <c r="F121" s="2" t="inlineStr">
         <is>
-          <t>B-NonEvent</t>
+          <t>B-Event</t>
         </is>
       </c>
       <c r="G121" s="2" t="b">
@@ -6725,11 +6725,11 @@
         </is>
       </c>
       <c r="I121" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J121" s="2" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K121" s="2" t="b">
@@ -6737,7 +6737,7 @@
       </c>
       <c r="L121" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -6777,11 +6777,11 @@
         </is>
       </c>
       <c r="I122" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J122" s="2" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K122" s="2" t="b">
@@ -6829,11 +6829,11 @@
         </is>
       </c>
       <c r="I123" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J123" s="2" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K123" s="2" t="b">
@@ -6881,11 +6881,11 @@
         </is>
       </c>
       <c r="I124" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J124" s="2" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K124" s="2" t="b">
@@ -6933,11 +6933,11 @@
         </is>
       </c>
       <c r="I125" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J125" s="2" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K125" s="2" t="b">
@@ -6973,7 +6973,7 @@
       </c>
       <c r="F126" s="2" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>I-Event</t>
         </is>
       </c>
       <c r="G126" s="2" t="b">
@@ -6985,11 +6985,11 @@
         </is>
       </c>
       <c r="I126" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J126" s="2" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K126" s="2" t="b">
@@ -6997,7 +6997,7 @@
       </c>
       <c r="L126" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -7025,7 +7025,7 @@
       </c>
       <c r="F127" s="2" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>I-Event</t>
         </is>
       </c>
       <c r="G127" s="2" t="b">
@@ -7037,11 +7037,11 @@
         </is>
       </c>
       <c r="I127" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J127" s="2" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K127" s="2" t="b">
@@ -7049,7 +7049,7 @@
       </c>
       <c r="L127" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
+          <t>Wrong_Tag_E_as_I</t>
         </is>
       </c>
     </row>
@@ -7077,7 +7077,7 @@
       </c>
       <c r="F128" s="2" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>I-Event</t>
         </is>
       </c>
       <c r="G128" s="2" t="b">
@@ -7089,11 +7089,11 @@
         </is>
       </c>
       <c r="I128" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J128" s="2" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K128" s="2" t="b">
@@ -7101,7 +7101,7 @@
       </c>
       <c r="L128" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
+          <t>Wrong_Tag_B_as_I</t>
         </is>
       </c>
     </row>
@@ -7129,7 +7129,7 @@
       </c>
       <c r="F129" s="2" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>I-Event</t>
         </is>
       </c>
       <c r="G129" s="2" t="b">
@@ -7141,11 +7141,11 @@
         </is>
       </c>
       <c r="I129" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J129" s="2" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K129" s="2" t="b">
@@ -7153,7 +7153,7 @@
       </c>
       <c r="L129" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -7181,7 +7181,7 @@
       </c>
       <c r="F130" s="2" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>I-Event</t>
         </is>
       </c>
       <c r="G130" s="2" t="b">
@@ -7193,11 +7193,11 @@
         </is>
       </c>
       <c r="I130" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J130" s="2" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K130" s="2" t="b">
@@ -7205,7 +7205,7 @@
       </c>
       <c r="L130" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -7233,7 +7233,7 @@
       </c>
       <c r="F131" s="2" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>I-Event</t>
         </is>
       </c>
       <c r="G131" s="2" t="b">
@@ -7245,11 +7245,11 @@
         </is>
       </c>
       <c r="I131" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J131" s="2" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K131" s="2" t="b">
@@ -7257,7 +7257,7 @@
       </c>
       <c r="L131" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -7285,7 +7285,7 @@
       </c>
       <c r="F132" s="2" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>I-Event</t>
         </is>
       </c>
       <c r="G132" s="2" t="b">
@@ -7297,11 +7297,11 @@
         </is>
       </c>
       <c r="I132" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J132" s="2" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K132" s="2" t="b">
@@ -7309,7 +7309,7 @@
       </c>
       <c r="L132" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -7337,7 +7337,7 @@
       </c>
       <c r="F133" s="2" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>I-Event</t>
         </is>
       </c>
       <c r="G133" s="2" t="b">
@@ -7349,11 +7349,11 @@
         </is>
       </c>
       <c r="I133" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J133" s="2" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K133" s="2" t="b">
@@ -7361,7 +7361,7 @@
       </c>
       <c r="L133" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -7389,7 +7389,7 @@
       </c>
       <c r="F134" s="2" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>I-Event</t>
         </is>
       </c>
       <c r="G134" s="2" t="b">
@@ -7401,11 +7401,11 @@
         </is>
       </c>
       <c r="I134" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J134" s="2" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K134" s="2" t="b">
@@ -7413,7 +7413,7 @@
       </c>
       <c r="L134" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -7441,7 +7441,7 @@
       </c>
       <c r="F135" s="2" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>I-Event</t>
         </is>
       </c>
       <c r="G135" s="2" t="b">
@@ -7453,11 +7453,11 @@
         </is>
       </c>
       <c r="I135" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J135" s="2" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K135" s="2" t="b">
@@ -7465,7 +7465,7 @@
       </c>
       <c r="L135" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -7493,7 +7493,7 @@
       </c>
       <c r="F136" s="2" t="inlineStr">
         <is>
-          <t>E-NonEvent</t>
+          <t>E-Event</t>
         </is>
       </c>
       <c r="G136" s="2" t="b">
@@ -7505,11 +7505,11 @@
         </is>
       </c>
       <c r="I136" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J136" s="2" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K136" s="2" t="b">
@@ -7517,7 +7517,7 @@
       </c>
       <c r="L136" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -9446,676 +9446,676 @@
       </c>
     </row>
     <row r="174">
-      <c r="A174" s="2" t="n">
+      <c r="A174" t="n">
         <v>16</v>
       </c>
-      <c r="B174" s="2" t="inlineStr">
+      <c r="B174" t="inlineStr">
         <is>
           <t>Motor Obstructed Propulsion output is limited to ensure the health of the battery .</t>
         </is>
       </c>
-      <c r="C174" s="2" t="inlineStr">
+      <c r="C174" t="inlineStr">
         <is>
           <t>Motor</t>
         </is>
       </c>
-      <c r="D174" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E174" s="2" t="inlineStr">
+      <c r="D174" t="n">
+        <v>0</v>
+      </c>
+      <c r="E174" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="F174" s="2" t="inlineStr">
+      <c r="F174" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="G174" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H174" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I174" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J174" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K174" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L174" s="2" t="inlineStr">
+      <c r="G174" t="b">
+        <v>1</v>
+      </c>
+      <c r="H174" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I174" t="b">
+        <v>1</v>
+      </c>
+      <c r="J174" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K174" t="b">
+        <v>1</v>
+      </c>
+      <c r="L174" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="175">
-      <c r="A175" s="2" t="n">
+      <c r="A175" t="n">
         <v>16</v>
       </c>
-      <c r="B175" s="2" t="inlineStr">
+      <c r="B175" t="inlineStr">
         <is>
           <t>Motor Obstructed Propulsion output is limited to ensure the health of the battery .</t>
         </is>
       </c>
-      <c r="C175" s="2" t="inlineStr">
+      <c r="C175" t="inlineStr">
         <is>
           <t>Obstructed</t>
         </is>
       </c>
-      <c r="D175" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="E175" s="2" t="inlineStr">
+      <c r="D175" t="n">
+        <v>1</v>
+      </c>
+      <c r="E175" t="inlineStr">
         <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="F175" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G175" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H175" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I175" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J175" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K175" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L175" s="2" t="inlineStr">
+      <c r="F175" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G175" t="b">
+        <v>1</v>
+      </c>
+      <c r="H175" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I175" t="b">
+        <v>1</v>
+      </c>
+      <c r="J175" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K175" t="b">
+        <v>1</v>
+      </c>
+      <c r="L175" t="inlineStr">
         <is>
           <t>Wrong_Tag_E_as_I</t>
         </is>
       </c>
     </row>
     <row r="176">
-      <c r="A176" s="2" t="n">
+      <c r="A176" t="n">
         <v>16</v>
       </c>
-      <c r="B176" s="2" t="inlineStr">
+      <c r="B176" t="inlineStr">
         <is>
           <t>Motor Obstructed Propulsion output is limited to ensure the health of the battery .</t>
         </is>
       </c>
-      <c r="C176" s="2" t="inlineStr">
+      <c r="C176" t="inlineStr">
         <is>
           <t>Propulsion</t>
         </is>
       </c>
-      <c r="D176" s="2" t="n">
+      <c r="D176" t="n">
         <v>2</v>
       </c>
-      <c r="E176" s="2" t="inlineStr">
+      <c r="E176" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="F176" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G176" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H176" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I176" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J176" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K176" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L176" s="2" t="inlineStr">
+      <c r="F176" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G176" t="b">
+        <v>1</v>
+      </c>
+      <c r="H176" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I176" t="b">
+        <v>1</v>
+      </c>
+      <c r="J176" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K176" t="b">
+        <v>1</v>
+      </c>
+      <c r="L176" t="inlineStr">
         <is>
           <t>Wrong_Tag_B_as_I</t>
         </is>
       </c>
     </row>
     <row r="177">
-      <c r="A177" s="2" t="n">
+      <c r="A177" t="n">
         <v>16</v>
       </c>
-      <c r="B177" s="2" t="inlineStr">
+      <c r="B177" t="inlineStr">
         <is>
           <t>Motor Obstructed Propulsion output is limited to ensure the health of the battery .</t>
         </is>
       </c>
-      <c r="C177" s="2" t="inlineStr">
+      <c r="C177" t="inlineStr">
         <is>
           <t>output</t>
         </is>
       </c>
-      <c r="D177" s="2" t="n">
+      <c r="D177" t="n">
         <v>3</v>
       </c>
-      <c r="E177" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F177" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G177" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H177" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I177" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J177" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K177" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L177" s="2" t="inlineStr">
+      <c r="E177" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F177" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G177" t="b">
+        <v>1</v>
+      </c>
+      <c r="H177" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I177" t="b">
+        <v>1</v>
+      </c>
+      <c r="J177" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K177" t="b">
+        <v>1</v>
+      </c>
+      <c r="L177" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="178">
-      <c r="A178" s="2" t="n">
+      <c r="A178" t="n">
         <v>16</v>
       </c>
-      <c r="B178" s="2" t="inlineStr">
+      <c r="B178" t="inlineStr">
         <is>
           <t>Motor Obstructed Propulsion output is limited to ensure the health of the battery .</t>
         </is>
       </c>
-      <c r="C178" s="2" t="inlineStr">
+      <c r="C178" t="inlineStr">
         <is>
           <t>is</t>
         </is>
       </c>
-      <c r="D178" s="2" t="n">
+      <c r="D178" t="n">
         <v>4</v>
       </c>
-      <c r="E178" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F178" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G178" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H178" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I178" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J178" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K178" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L178" s="2" t="inlineStr">
+      <c r="E178" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F178" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G178" t="b">
+        <v>1</v>
+      </c>
+      <c r="H178" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I178" t="b">
+        <v>1</v>
+      </c>
+      <c r="J178" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K178" t="b">
+        <v>1</v>
+      </c>
+      <c r="L178" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="179">
-      <c r="A179" s="2" t="n">
+      <c r="A179" t="n">
         <v>16</v>
       </c>
-      <c r="B179" s="2" t="inlineStr">
+      <c r="B179" t="inlineStr">
         <is>
           <t>Motor Obstructed Propulsion output is limited to ensure the health of the battery .</t>
         </is>
       </c>
-      <c r="C179" s="2" t="inlineStr">
+      <c r="C179" t="inlineStr">
         <is>
           <t>limited</t>
         </is>
       </c>
-      <c r="D179" s="2" t="n">
+      <c r="D179" t="n">
         <v>5</v>
       </c>
-      <c r="E179" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F179" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G179" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H179" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I179" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J179" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K179" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L179" s="2" t="inlineStr">
+      <c r="E179" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F179" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G179" t="b">
+        <v>1</v>
+      </c>
+      <c r="H179" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I179" t="b">
+        <v>1</v>
+      </c>
+      <c r="J179" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K179" t="b">
+        <v>1</v>
+      </c>
+      <c r="L179" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="180">
-      <c r="A180" s="2" t="n">
+      <c r="A180" t="n">
         <v>16</v>
       </c>
-      <c r="B180" s="2" t="inlineStr">
+      <c r="B180" t="inlineStr">
         <is>
           <t>Motor Obstructed Propulsion output is limited to ensure the health of the battery .</t>
         </is>
       </c>
-      <c r="C180" s="2" t="inlineStr">
+      <c r="C180" t="inlineStr">
         <is>
           <t>to</t>
         </is>
       </c>
-      <c r="D180" s="2" t="n">
+      <c r="D180" t="n">
         <v>6</v>
       </c>
-      <c r="E180" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F180" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G180" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H180" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I180" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J180" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K180" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L180" s="2" t="inlineStr">
+      <c r="E180" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F180" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G180" t="b">
+        <v>1</v>
+      </c>
+      <c r="H180" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I180" t="b">
+        <v>1</v>
+      </c>
+      <c r="J180" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K180" t="b">
+        <v>1</v>
+      </c>
+      <c r="L180" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="181">
-      <c r="A181" s="2" t="n">
+      <c r="A181" t="n">
         <v>16</v>
       </c>
-      <c r="B181" s="2" t="inlineStr">
+      <c r="B181" t="inlineStr">
         <is>
           <t>Motor Obstructed Propulsion output is limited to ensure the health of the battery .</t>
         </is>
       </c>
-      <c r="C181" s="2" t="inlineStr">
+      <c r="C181" t="inlineStr">
         <is>
           <t>ensure</t>
         </is>
       </c>
-      <c r="D181" s="2" t="n">
+      <c r="D181" t="n">
         <v>7</v>
       </c>
-      <c r="E181" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F181" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G181" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H181" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I181" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J181" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K181" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L181" s="2" t="inlineStr">
+      <c r="E181" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F181" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G181" t="b">
+        <v>1</v>
+      </c>
+      <c r="H181" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I181" t="b">
+        <v>1</v>
+      </c>
+      <c r="J181" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K181" t="b">
+        <v>1</v>
+      </c>
+      <c r="L181" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="182">
-      <c r="A182" s="2" t="n">
+      <c r="A182" t="n">
         <v>16</v>
       </c>
-      <c r="B182" s="2" t="inlineStr">
+      <c r="B182" t="inlineStr">
         <is>
           <t>Motor Obstructed Propulsion output is limited to ensure the health of the battery .</t>
         </is>
       </c>
-      <c r="C182" s="2" t="inlineStr">
+      <c r="C182" t="inlineStr">
         <is>
           <t>the</t>
         </is>
       </c>
-      <c r="D182" s="2" t="n">
+      <c r="D182" t="n">
         <v>8</v>
       </c>
-      <c r="E182" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F182" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G182" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H182" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I182" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J182" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K182" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L182" s="2" t="inlineStr">
+      <c r="E182" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F182" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G182" t="b">
+        <v>1</v>
+      </c>
+      <c r="H182" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I182" t="b">
+        <v>1</v>
+      </c>
+      <c r="J182" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K182" t="b">
+        <v>1</v>
+      </c>
+      <c r="L182" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="183">
-      <c r="A183" s="2" t="n">
+      <c r="A183" t="n">
         <v>16</v>
       </c>
-      <c r="B183" s="2" t="inlineStr">
+      <c r="B183" t="inlineStr">
         <is>
           <t>Motor Obstructed Propulsion output is limited to ensure the health of the battery .</t>
         </is>
       </c>
-      <c r="C183" s="2" t="inlineStr">
+      <c r="C183" t="inlineStr">
         <is>
           <t>health</t>
         </is>
       </c>
-      <c r="D183" s="2" t="n">
+      <c r="D183" t="n">
         <v>9</v>
       </c>
-      <c r="E183" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F183" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G183" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H183" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I183" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J183" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K183" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L183" s="2" t="inlineStr">
+      <c r="E183" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F183" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G183" t="b">
+        <v>1</v>
+      </c>
+      <c r="H183" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I183" t="b">
+        <v>1</v>
+      </c>
+      <c r="J183" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K183" t="b">
+        <v>1</v>
+      </c>
+      <c r="L183" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="184">
-      <c r="A184" s="2" t="n">
+      <c r="A184" t="n">
         <v>16</v>
       </c>
-      <c r="B184" s="2" t="inlineStr">
+      <c r="B184" t="inlineStr">
         <is>
           <t>Motor Obstructed Propulsion output is limited to ensure the health of the battery .</t>
         </is>
       </c>
-      <c r="C184" s="2" t="inlineStr">
+      <c r="C184" t="inlineStr">
         <is>
           <t>of</t>
         </is>
       </c>
-      <c r="D184" s="2" t="n">
+      <c r="D184" t="n">
         <v>10</v>
       </c>
-      <c r="E184" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F184" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G184" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H184" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I184" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J184" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K184" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L184" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
+      <c r="E184" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F184" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G184" t="b">
+        <v>1</v>
+      </c>
+      <c r="H184" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I184" t="b">
+        <v>1</v>
+      </c>
+      <c r="J184" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K184" t="b">
+        <v>1</v>
+      </c>
+      <c r="L184" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="185">
-      <c r="A185" s="2" t="n">
+      <c r="A185" t="n">
         <v>16</v>
       </c>
-      <c r="B185" s="2" t="inlineStr">
+      <c r="B185" t="inlineStr">
         <is>
           <t>Motor Obstructed Propulsion output is limited to ensure the health of the battery .</t>
         </is>
       </c>
-      <c r="C185" s="2" t="inlineStr">
+      <c r="C185" t="inlineStr">
         <is>
           <t>the</t>
         </is>
       </c>
-      <c r="D185" s="2" t="n">
+      <c r="D185" t="n">
         <v>11</v>
       </c>
-      <c r="E185" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F185" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G185" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H185" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I185" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J185" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K185" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L185" s="2" t="inlineStr">
+      <c r="E185" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F185" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G185" t="b">
+        <v>1</v>
+      </c>
+      <c r="H185" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I185" t="b">
+        <v>1</v>
+      </c>
+      <c r="J185" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K185" t="b">
+        <v>1</v>
+      </c>
+      <c r="L185" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="186">
-      <c r="A186" s="2" t="n">
+      <c r="A186" t="n">
         <v>16</v>
       </c>
-      <c r="B186" s="2" t="inlineStr">
+      <c r="B186" t="inlineStr">
         <is>
           <t>Motor Obstructed Propulsion output is limited to ensure the health of the battery .</t>
         </is>
       </c>
-      <c r="C186" s="2" t="inlineStr">
+      <c r="C186" t="inlineStr">
         <is>
           <t>battery</t>
         </is>
       </c>
-      <c r="D186" s="2" t="n">
+      <c r="D186" t="n">
         <v>12</v>
       </c>
-      <c r="E186" s="2" t="inlineStr">
+      <c r="E186" t="inlineStr">
         <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="F186" s="2" t="inlineStr">
+      <c r="F186" t="inlineStr">
         <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="G186" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H186" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I186" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J186" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K186" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L186" s="2" t="inlineStr">
+      <c r="G186" t="b">
+        <v>1</v>
+      </c>
+      <c r="H186" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I186" t="b">
+        <v>1</v>
+      </c>
+      <c r="J186" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K186" t="b">
+        <v>1</v>
+      </c>
+      <c r="L186" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
@@ -11318,158 +11318,158 @@
       </c>
     </row>
     <row r="210">
-      <c r="A210" s="2" t="n">
+      <c r="A210" t="n">
         <v>19</v>
       </c>
-      <c r="B210" s="2" t="inlineStr">
+      <c r="B210" t="inlineStr">
         <is>
           <t>GEO Zone Info: The target area is in an Altitude Zone Flight altitude restricted to nnn .</t>
         </is>
       </c>
-      <c r="C210" s="2" t="inlineStr">
+      <c r="C210" t="inlineStr">
         <is>
           <t>GEO</t>
         </is>
       </c>
-      <c r="D210" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E210" s="2" t="inlineStr">
+      <c r="D210" t="n">
+        <v>0</v>
+      </c>
+      <c r="E210" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="F210" s="2" t="inlineStr">
+      <c r="F210" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="G210" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H210" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I210" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J210" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K210" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L210" s="2" t="inlineStr">
+      <c r="G210" t="b">
+        <v>1</v>
+      </c>
+      <c r="H210" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I210" t="b">
+        <v>1</v>
+      </c>
+      <c r="J210" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K210" t="b">
+        <v>1</v>
+      </c>
+      <c r="L210" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="211">
-      <c r="A211" s="2" t="n">
+      <c r="A211" t="n">
         <v>19</v>
       </c>
-      <c r="B211" s="2" t="inlineStr">
+      <c r="B211" t="inlineStr">
         <is>
           <t>GEO Zone Info: The target area is in an Altitude Zone Flight altitude restricted to nnn .</t>
         </is>
       </c>
-      <c r="C211" s="2" t="inlineStr">
+      <c r="C211" t="inlineStr">
         <is>
           <t>Zone</t>
         </is>
       </c>
-      <c r="D211" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="E211" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F211" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G211" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H211" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I211" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J211" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K211" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L211" s="2" t="inlineStr">
+      <c r="D211" t="n">
+        <v>1</v>
+      </c>
+      <c r="E211" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F211" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G211" t="b">
+        <v>1</v>
+      </c>
+      <c r="H211" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I211" t="b">
+        <v>1</v>
+      </c>
+      <c r="J211" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K211" t="b">
+        <v>1</v>
+      </c>
+      <c r="L211" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="212">
-      <c r="A212" s="2" t="n">
+      <c r="A212" t="n">
         <v>19</v>
       </c>
-      <c r="B212" s="2" t="inlineStr">
+      <c r="B212" t="inlineStr">
         <is>
           <t>GEO Zone Info: The target area is in an Altitude Zone Flight altitude restricted to nnn .</t>
         </is>
       </c>
-      <c r="C212" s="2" t="inlineStr">
+      <c r="C212" t="inlineStr">
         <is>
           <t>Info:</t>
         </is>
       </c>
-      <c r="D212" s="2" t="n">
+      <c r="D212" t="n">
         <v>2</v>
       </c>
-      <c r="E212" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F212" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G212" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H212" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I212" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J212" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K212" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L212" s="2" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="E212" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F212" t="inlineStr">
+        <is>
+          <t>E-Event</t>
+        </is>
+      </c>
+      <c r="G212" t="b">
+        <v>1</v>
+      </c>
+      <c r="H212" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I212" t="b">
+        <v>1</v>
+      </c>
+      <c r="J212" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K212" t="b">
+        <v>1</v>
+      </c>
+      <c r="L212" t="inlineStr">
+        <is>
+          <t>Wrong_Tag_I_as_E</t>
         </is>
       </c>
     </row>
